--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero-mod-2\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero-modificado\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U242"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13653,7 +13653,7 @@
         <v>203.74436160185655</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" ref="G194:G237" si="18">+F194/$U$1</f>
+        <f t="shared" ref="G194:G244" si="18">+F194/$U$1</f>
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="2">
@@ -16798,7 +16798,7 @@
         <v>8.7041573850005615E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="16">
         <v>45639</v>
       </c>
@@ -16874,39 +16874,537 @@
         <v>8.6779995265999135E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F238" s="18"/>
-      <c r="P238" s="8"/>
-      <c r="Q238" s="8"/>
-      <c r="R238" s="8"/>
-      <c r="S238" s="8"/>
-      <c r="T238" s="8"/>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F239" s="4"/>
-      <c r="P239" s="8"/>
-      <c r="Q239" s="8"/>
-      <c r="R239" s="8"/>
-      <c r="S239" s="8"/>
-      <c r="T239" s="8"/>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P240" s="8"/>
-      <c r="Q240" s="8"/>
-      <c r="R240" s="8"/>
-      <c r="S240" s="8"/>
-    </row>
-    <row r="241" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P241" s="8"/>
-      <c r="Q241" s="8"/>
-      <c r="R241" s="8"/>
-      <c r="S241" s="8"/>
-    </row>
-    <row r="242" spans="16:19" x14ac:dyDescent="0.3">
-      <c r="P242" s="8"/>
-      <c r="Q242" s="8"/>
-      <c r="R242" s="8"/>
-      <c r="S242" s="8"/>
+    <row r="238" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="16">
+        <v>45642</v>
+      </c>
+      <c r="B238">
+        <v>106140.6</v>
+      </c>
+      <c r="C238">
+        <v>1105</v>
+      </c>
+      <c r="D238">
+        <v>2543202</v>
+      </c>
+      <c r="E238">
+        <v>74.7</v>
+      </c>
+      <c r="F238" s="18">
+        <v>212.30362386167531</v>
+      </c>
+      <c r="G238" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1230362386167529</v>
+      </c>
+      <c r="H238" s="2">
+        <f t="shared" ref="H238:H244" si="30">+B238/G238</f>
+        <v>49994.718916882477</v>
+      </c>
+      <c r="I238">
+        <f t="shared" ref="I238:I244" si="31">+C238/G238</f>
+        <v>520.48098845451352</v>
+      </c>
+      <c r="J238">
+        <f t="shared" ref="J238:J244" si="32">+D238/F238</f>
+        <v>11979.079554746566</v>
+      </c>
+      <c r="K238">
+        <f t="shared" ref="K238:K244" si="33">+D238/C238/G238</f>
+        <v>1084.0795977146213</v>
+      </c>
+      <c r="L238">
+        <f t="shared" ref="L238:L244" si="34">+E238/G238</f>
+        <v>35.185456866563044</v>
+      </c>
+      <c r="M238" s="8">
+        <f t="shared" ref="M238:M244" si="35">+LN(B238/B237)</f>
+        <v>3.8327301701708852E-2</v>
+      </c>
+      <c r="N238" s="8">
+        <f t="shared" ref="N238:N244" si="36">+LN(C238/C237)</f>
+        <v>9.0909717012521048E-3</v>
+      </c>
+      <c r="O238" s="8">
+        <f t="shared" ref="O238:O244" si="37">+LN(D238/D237)</f>
+        <v>7.025476035197252E-2</v>
+      </c>
+      <c r="P238" s="8">
+        <f t="shared" ref="P238:P244" si="38">+LN(E238/E237)</f>
+        <v>2.2062206335645335E-2</v>
+      </c>
+      <c r="Q238" s="8">
+        <f t="shared" ref="Q238:Q244" si="39">+_xlfn.STDEV.S(M219:M238)</f>
+        <v>3.2180583054749801E-2</v>
+      </c>
+      <c r="R238" s="8">
+        <f t="shared" ref="R238:R244" si="40">+_xlfn.STDEV.S(N219:N238)</f>
+        <v>1.0160035859511671E-2</v>
+      </c>
+      <c r="S238" s="8">
+        <f t="shared" ref="S238:S244" si="41">+_xlfn.STDEV.S(O219:O238)</f>
+        <v>2.24463844568943E-2</v>
+      </c>
+      <c r="T238" s="8">
+        <f t="shared" ref="T238:T244" si="42">+_xlfn.STDEV.S(P219:P238)</f>
+        <v>9.3475949167742284E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="16">
+        <v>45643</v>
+      </c>
+      <c r="B239">
+        <v>100041.55</v>
+      </c>
+      <c r="C239">
+        <v>1165</v>
+      </c>
+      <c r="D239">
+        <v>2592201</v>
+      </c>
+      <c r="E239">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="F239" s="4">
+        <v>212.32060815158425</v>
+      </c>
+      <c r="G239" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1232060815158427</v>
+      </c>
+      <c r="H239" s="2">
+        <f t="shared" si="30"/>
+        <v>47118.153471271282</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="31"/>
+        <v>548.69850371201812</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="32"/>
+        <v>12208.899656830876</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="33"/>
+        <v>1047.9742194704615</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="34"/>
+        <v>34.400805760623008</v>
+      </c>
+      <c r="M239" s="8">
+        <f t="shared" si="35"/>
+        <v>-5.9179030603150953E-2</v>
+      </c>
+      <c r="N239" s="8">
+        <f t="shared" si="36"/>
+        <v>5.2875752047947776E-2</v>
+      </c>
+      <c r="O239" s="8">
+        <f t="shared" si="37"/>
+        <v>1.9083404754798222E-2</v>
+      </c>
+      <c r="P239" s="8">
+        <f t="shared" si="38"/>
+        <v>-2.2472855852058514E-2</v>
+      </c>
+      <c r="Q239" s="8">
+        <f t="shared" si="39"/>
+        <v>3.3938984462612558E-2</v>
+      </c>
+      <c r="R239" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5815402922448922E-2</v>
+      </c>
+      <c r="S239" s="8">
+        <f t="shared" si="41"/>
+        <v>2.2188251706156455E-2</v>
+      </c>
+      <c r="T239" s="8">
+        <f t="shared" si="42"/>
+        <v>1.0459630659367541E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="16">
+        <v>45644</v>
+      </c>
+      <c r="B240">
+        <v>97490.95</v>
+      </c>
+      <c r="C240">
+        <v>1165</v>
+      </c>
+      <c r="D240">
+        <v>2521017</v>
+      </c>
+      <c r="E240">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F240">
+        <v>212.33759380023639</v>
+      </c>
+      <c r="G240" s="6">
+        <f t="shared" si="18"/>
+        <v>2.123375938002364</v>
+      </c>
+      <c r="H240" s="2">
+        <f t="shared" si="30"/>
+        <v>45913.183932807406</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="31"/>
+        <v>548.65461134311067</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="32"/>
+        <v>11872.683281754291</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="33"/>
+        <v>1019.114444785776</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="34"/>
+        <v>35.603681216771811</v>
+      </c>
+      <c r="M240" s="8">
+        <f t="shared" si="35"/>
+        <v>-2.5826046508979073E-2</v>
+      </c>
+      <c r="N240" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O240" s="8">
+        <f t="shared" si="37"/>
+        <v>-2.784493024090836E-2</v>
+      </c>
+      <c r="P240" s="8">
+        <f t="shared" si="38"/>
+        <v>3.4449046898774045E-2</v>
+      </c>
+      <c r="Q240" s="8">
+        <f t="shared" si="39"/>
+        <v>3.4592348329612096E-2</v>
+      </c>
+      <c r="R240" s="8">
+        <f t="shared" si="40"/>
+        <v>1.5815402922448922E-2</v>
+      </c>
+      <c r="S240" s="8">
+        <f t="shared" si="41"/>
+        <v>2.3742646813073056E-2</v>
+      </c>
+      <c r="T240" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2739193771541858E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="16">
+        <v>45645</v>
+      </c>
+      <c r="B241">
+        <v>96625.14</v>
+      </c>
+      <c r="C241">
+        <v>1205</v>
+      </c>
+      <c r="D241">
+        <v>2419894</v>
+      </c>
+      <c r="E241">
+        <v>74.17</v>
+      </c>
+      <c r="F241">
+        <v>212.35458080774043</v>
+      </c>
+      <c r="G241" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1235458080774041</v>
+      </c>
+      <c r="H241" s="2">
+        <f t="shared" si="30"/>
+        <v>45501.792159351418</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="31"/>
+        <v>567.44714214145984</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="32"/>
+        <v>11395.534726848678</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="33"/>
+        <v>945.68752919906058</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="34"/>
+        <v>34.927431147412513</v>
+      </c>
+      <c r="M241" s="8">
+        <f t="shared" si="35"/>
+        <v>-8.9205973759661009E-3</v>
+      </c>
+      <c r="N241" s="8">
+        <f t="shared" si="36"/>
+        <v>3.3758479924954454E-2</v>
+      </c>
+      <c r="O241" s="8">
+        <f t="shared" si="37"/>
+        <v>-4.0938653982475585E-2</v>
+      </c>
+      <c r="P241" s="8">
+        <f t="shared" si="38"/>
+        <v>-1.9096527437020467E-2</v>
+      </c>
+      <c r="Q241" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1399740247527688E-2</v>
+      </c>
+      <c r="R241" s="8">
+        <f t="shared" si="40"/>
+        <v>1.7320668394234063E-2</v>
+      </c>
+      <c r="S241" s="8">
+        <f t="shared" si="41"/>
+        <v>2.6078118291078575E-2</v>
+      </c>
+      <c r="T241" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3122293529372983E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="16">
+        <v>45646</v>
+      </c>
+      <c r="B242">
+        <v>97755.96</v>
+      </c>
+      <c r="C242">
+        <v>1175</v>
+      </c>
+      <c r="D242">
+        <v>2467562</v>
+      </c>
+      <c r="E242">
+        <v>73.98</v>
+      </c>
+      <c r="F242">
+        <v>212.37156917420506</v>
+      </c>
+      <c r="G242" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1237156917420505</v>
+      </c>
+      <c r="H242" s="2">
+        <f t="shared" si="30"/>
+        <v>46030.624711263648</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="31"/>
+        <v>553.27556535412043</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="32"/>
+        <v>11619.078813585907</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="33"/>
+        <v>988.85777136901345</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="34"/>
+        <v>34.835171340338583</v>
+      </c>
+      <c r="M242" s="8">
+        <f t="shared" si="35"/>
+        <v>1.163521306684958E-2</v>
+      </c>
+      <c r="N242" s="8">
+        <f t="shared" si="36"/>
+        <v>-2.5211419346496056E-2</v>
+      </c>
+      <c r="O242" s="8">
+        <f t="shared" si="37"/>
+        <v>1.9506881099851974E-2</v>
+      </c>
+      <c r="P242" s="8">
+        <f t="shared" si="38"/>
+        <v>-2.5649693441587313E-3</v>
+      </c>
+      <c r="Q242" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1423058764466473E-2</v>
+      </c>
+      <c r="R242" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8442981444292614E-2</v>
+      </c>
+      <c r="S242" s="8">
+        <f t="shared" si="41"/>
+        <v>2.5512901449569934E-2</v>
+      </c>
+      <c r="T242" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3130761358161274E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="16">
+        <v>45649</v>
+      </c>
+      <c r="B243">
+        <v>94686.24</v>
+      </c>
+      <c r="C243">
+        <v>1200</v>
+      </c>
+      <c r="D243">
+        <v>2501153</v>
+      </c>
+      <c r="E243">
+        <v>74</v>
+      </c>
+      <c r="F243">
+        <v>212.38855889973902</v>
+      </c>
+      <c r="G243" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1238855889973904</v>
+      </c>
+      <c r="H243" s="2">
+        <f t="shared" si="30"/>
+        <v>44581.610464572128</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="31"/>
+        <v>565.00218571871221</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="32"/>
+        <v>11776.307598474286</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="33"/>
+        <v>981.35896653952364</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="34"/>
+        <v>34.841801452653918</v>
+      </c>
+      <c r="M243" s="8">
+        <f t="shared" si="35"/>
+        <v>-3.1905480189316861E-2</v>
+      </c>
+      <c r="N243" s="8">
+        <f t="shared" si="36"/>
+        <v>2.1053409197832263E-2</v>
+      </c>
+      <c r="O243" s="8">
+        <f t="shared" si="37"/>
+        <v>1.3521206897889699E-2</v>
+      </c>
+      <c r="P243" s="8">
+        <f t="shared" si="38"/>
+        <v>2.7030679986176091E-4</v>
+      </c>
+      <c r="Q243" s="8">
+        <f t="shared" si="39"/>
+        <v>3.0091280395288741E-2</v>
+      </c>
+      <c r="R243" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8870525857489464E-2</v>
+      </c>
+      <c r="S243" s="8">
+        <f t="shared" si="41"/>
+        <v>2.556753689573937E-2</v>
+      </c>
+      <c r="T243" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3053839904637392E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A244" s="16">
+        <v>45650</v>
+      </c>
+      <c r="B244">
+        <v>98676.09</v>
+      </c>
+      <c r="C244">
+        <v>1200</v>
+      </c>
+      <c r="D244">
+        <v>2551020</v>
+      </c>
+      <c r="E244">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="F244">
+        <v>212.40554998445103</v>
+      </c>
+      <c r="G244" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1240554998445105</v>
+      </c>
+      <c r="H244" s="2">
+        <f t="shared" si="30"/>
+        <v>46456.455590366393</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="31"/>
+        <v>564.95698915957939</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="32"/>
+        <v>12010.138154048918</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="33"/>
+        <v>1000.844846170743</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="34"/>
+        <v>34.834306356597729</v>
+      </c>
+      <c r="M244" s="8">
+        <f t="shared" si="35"/>
+        <v>4.1273979167770099E-2</v>
+      </c>
+      <c r="N244" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O244" s="8">
+        <f t="shared" si="37"/>
+        <v>1.9741453637538094E-2</v>
+      </c>
+      <c r="P244" s="8">
+        <f t="shared" si="38"/>
+        <v>-1.3514426671023695E-4</v>
+      </c>
+      <c r="Q244" s="8">
+        <f t="shared" si="39"/>
+        <v>3.0996194170583257E-2</v>
+      </c>
+      <c r="R244" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8870525857489464E-2</v>
+      </c>
+      <c r="S244" s="8">
+        <f t="shared" si="41"/>
+        <v>2.5675685216808745E-2</v>
+      </c>
+      <c r="T244" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3011907811446699E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/basedatos.xlsx
+++ b/datos/basedatos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero-modificado\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero-opcional\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19692" windowHeight="11004"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U244"/>
+  <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13653,7 +13653,7 @@
         <v>203.74436160185655</v>
       </c>
       <c r="G194" s="6">
-        <f t="shared" ref="G194:G244" si="18">+F194/$U$1</f>
+        <f t="shared" ref="G194:G247" si="18">+F194/$U$1</f>
         <v>2.0374436160185656</v>
       </c>
       <c r="H194" s="2">
@@ -16898,55 +16898,55 @@
         <v>2.1230362386167529</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" ref="H238:H244" si="30">+B238/G238</f>
+        <f t="shared" ref="H238:H247" si="30">+B238/G238</f>
         <v>49994.718916882477</v>
       </c>
       <c r="I238">
-        <f t="shared" ref="I238:I244" si="31">+C238/G238</f>
+        <f t="shared" ref="I238:I247" si="31">+C238/G238</f>
         <v>520.48098845451352</v>
       </c>
       <c r="J238">
-        <f t="shared" ref="J238:J244" si="32">+D238/F238</f>
+        <f t="shared" ref="J238:J247" si="32">+D238/F238</f>
         <v>11979.079554746566</v>
       </c>
       <c r="K238">
-        <f t="shared" ref="K238:K244" si="33">+D238/C238/G238</f>
+        <f t="shared" ref="K238:K247" si="33">+D238/C238/G238</f>
         <v>1084.0795977146213</v>
       </c>
       <c r="L238">
-        <f t="shared" ref="L238:L244" si="34">+E238/G238</f>
+        <f t="shared" ref="L238:L247" si="34">+E238/G238</f>
         <v>35.185456866563044</v>
       </c>
       <c r="M238" s="8">
-        <f t="shared" ref="M238:M244" si="35">+LN(B238/B237)</f>
+        <f t="shared" ref="M238:M247" si="35">+LN(B238/B237)</f>
         <v>3.8327301701708852E-2</v>
       </c>
       <c r="N238" s="8">
-        <f t="shared" ref="N238:N244" si="36">+LN(C238/C237)</f>
+        <f t="shared" ref="N238:N247" si="36">+LN(C238/C237)</f>
         <v>9.0909717012521048E-3</v>
       </c>
       <c r="O238" s="8">
-        <f t="shared" ref="O238:O244" si="37">+LN(D238/D237)</f>
+        <f t="shared" ref="O238:O247" si="37">+LN(D238/D237)</f>
         <v>7.025476035197252E-2</v>
       </c>
       <c r="P238" s="8">
-        <f t="shared" ref="P238:P244" si="38">+LN(E238/E237)</f>
+        <f t="shared" ref="P238:P247" si="38">+LN(E238/E237)</f>
         <v>2.2062206335645335E-2</v>
       </c>
       <c r="Q238" s="8">
-        <f t="shared" ref="Q238:Q244" si="39">+_xlfn.STDEV.S(M219:M238)</f>
+        <f t="shared" ref="Q238:Q247" si="39">+_xlfn.STDEV.S(M219:M238)</f>
         <v>3.2180583054749801E-2</v>
       </c>
       <c r="R238" s="8">
-        <f t="shared" ref="R238:R244" si="40">+_xlfn.STDEV.S(N219:N238)</f>
+        <f t="shared" ref="R238:R247" si="40">+_xlfn.STDEV.S(N219:N238)</f>
         <v>1.0160035859511671E-2</v>
       </c>
       <c r="S238" s="8">
-        <f t="shared" ref="S238:S244" si="41">+_xlfn.STDEV.S(O219:O238)</f>
+        <f t="shared" ref="S238:S247" si="41">+_xlfn.STDEV.S(O219:O238)</f>
         <v>2.24463844568943E-2</v>
       </c>
       <c r="T238" s="8">
-        <f t="shared" ref="T238:T244" si="42">+_xlfn.STDEV.S(P219:P238)</f>
+        <f t="shared" ref="T238:T247" si="42">+_xlfn.STDEV.S(P219:P238)</f>
         <v>9.3475949167742284E-3</v>
       </c>
     </row>
@@ -17330,7 +17330,7 @@
         <v>1.3053839904637392E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="16">
         <v>45650</v>
       </c>
@@ -17404,6 +17404,234 @@
       <c r="T244" s="8">
         <f t="shared" si="42"/>
         <v>1.3011907811446699E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="16">
+        <v>45651</v>
+      </c>
+      <c r="B245">
+        <v>99299.199999999997</v>
+      </c>
+      <c r="C245">
+        <v>1200</v>
+      </c>
+      <c r="D245">
+        <v>2551020</v>
+      </c>
+      <c r="E245">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="F245">
+        <v>212.42254242844979</v>
+      </c>
+      <c r="G245" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1242254242844978</v>
+      </c>
+      <c r="H245" s="2">
+        <f t="shared" si="30"/>
+        <v>46746.0745290001</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="31"/>
+        <v>564.91179621588219</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="32"/>
+        <v>12009.17741985533</v>
+      </c>
+      <c r="K245">
+        <f t="shared" si="33"/>
+        <v>1000.7647849879442</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="34"/>
+        <v>34.83151983501093</v>
+      </c>
+      <c r="M245" s="8">
+        <f t="shared" si="35"/>
+        <v>6.2948467716832041E-3</v>
+      </c>
+      <c r="N245" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O245" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P245" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q245" s="8">
+        <f t="shared" si="39"/>
+        <v>3.0140768373059474E-2</v>
+      </c>
+      <c r="R245" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8878987433080655E-2</v>
+      </c>
+      <c r="S245" s="8">
+        <f t="shared" si="41"/>
+        <v>2.4916055399116614E-2</v>
+      </c>
+      <c r="T245" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3002348360400328E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="16">
+        <v>45652</v>
+      </c>
+      <c r="B246">
+        <v>95861.29</v>
+      </c>
+      <c r="C246">
+        <v>1200</v>
+      </c>
+      <c r="D246">
+        <v>2597388.5</v>
+      </c>
+      <c r="E246">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F246">
+        <v>212.43953623184407</v>
+      </c>
+      <c r="G246" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1243953623184408</v>
+      </c>
+      <c r="H246" s="2">
+        <f t="shared" si="30"/>
+        <v>45124.03467845203</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="31"/>
+        <v>564.86660688733105</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="32"/>
+        <v>12226.483573026455</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="33"/>
+        <v>1018.8736310855378</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="34"/>
+        <v>35.257090713217586</v>
+      </c>
+      <c r="M246" s="8">
+        <f t="shared" si="35"/>
+        <v>-3.5235263857997821E-2</v>
+      </c>
+      <c r="N246" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O246" s="8">
+        <f t="shared" si="37"/>
+        <v>1.8013237987962227E-2</v>
+      </c>
+      <c r="P246" s="8">
+        <f t="shared" si="38"/>
+        <v>1.2223941585714318E-2</v>
+      </c>
+      <c r="Q246" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1212467771200885E-2</v>
+      </c>
+      <c r="R246" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8694768687334017E-2</v>
+      </c>
+      <c r="S246" s="8">
+        <f t="shared" si="41"/>
+        <v>2.5016250903668276E-2</v>
+      </c>
+      <c r="T246" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3194826794129885E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A247" s="16">
+        <v>45653</v>
+      </c>
+      <c r="B247">
+        <v>94203.26</v>
+      </c>
+      <c r="C247">
+        <v>1210</v>
+      </c>
+      <c r="D247">
+        <v>2577545.67</v>
+      </c>
+      <c r="E247">
+        <v>74.930000000000007</v>
+      </c>
+      <c r="F247">
+        <v>212.45653139474263</v>
+      </c>
+      <c r="G247" s="6">
+        <f t="shared" si="18"/>
+        <v>2.1245653139474263</v>
+      </c>
+      <c r="H247" s="2">
+        <f t="shared" si="30"/>
+        <v>44340.015993658038</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="31"/>
+        <v>569.52826635008421</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="32"/>
+        <v>12132.10840391129</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="33"/>
+        <v>1002.6535871001067</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="34"/>
+        <v>35.268390907117201</v>
+      </c>
+      <c r="M247" s="8">
+        <f t="shared" si="35"/>
+        <v>-1.7447462563727766E-2</v>
+      </c>
+      <c r="N247" s="8">
+        <f t="shared" si="36"/>
+        <v>8.2988028146950641E-3</v>
+      </c>
+      <c r="O247" s="8">
+        <f t="shared" si="37"/>
+        <v>-7.6688617079310548E-3</v>
+      </c>
+      <c r="P247" s="8">
+        <f t="shared" si="38"/>
+        <v>4.0045385304556604E-4</v>
+      </c>
+      <c r="Q247" s="8">
+        <f t="shared" si="39"/>
+        <v>3.1378601778288308E-2</v>
+      </c>
+      <c r="R247" s="8">
+        <f t="shared" si="40"/>
+        <v>1.8636386212293323E-2</v>
+      </c>
+      <c r="S247" s="8">
+        <f t="shared" si="41"/>
+        <v>2.5217399618997941E-2</v>
+      </c>
+      <c r="T247" s="8">
+        <f t="shared" si="42"/>
+        <v>1.3151728671364552E-2</v>
       </c>
     </row>
   </sheetData>
